--- a/job_shop/JSP_dataset.xlsx
+++ b/job_shop/JSP_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\job_shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BED7B8-5308-4304-A9CC-A2983B8DBF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9618CE6C-E7B0-4BB7-A75A-3922EF804354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="8130" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="9165" windowWidth="16200" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machines Sequence" sheetId="1" r:id="rId1"/>
@@ -876,7 +876,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
